--- a/URS/DbLayouts/L6-共同作業/CdCity.xlsx
+++ b/URS/DbLayouts/L6-共同作業/CdCity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A42F424-7674-4627-8246-CEE26C3CC9CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC80112-8276-4B0D-9E1F-95C28E1A945A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -306,28 +306,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>C:基隆市
-A:台北市
-F:新北市
-H:桃園市
-O:新竹市
-J:新竹縣
-K:苗栗縣
-B:台中市
-N:彰化縣
-M:南投縣
-P:雲林縣
-I:嘉義市
-Q:嘉義縣
-D:台南市
-E:高雄市
-T:屏東縣
-V:台東縣
-U:花蓮縣
-G:宜蘭縣
-W:金門縣
-X:澎湖縣
-Z:連江縣</t>
+    <t>刪除</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -448,8 +427,8 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color indexed="8"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -648,7 +627,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -992,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1224,6 +1203,9 @@
       <c r="F13" s="29">
         <v>4</v>
       </c>
+      <c r="G13" s="35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="22.2" customHeight="1">
       <c r="A14" s="29">
@@ -1244,6 +1226,9 @@
       <c r="F14" s="29">
         <v>4</v>
       </c>
+      <c r="G14" s="35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="29">
@@ -1264,8 +1249,11 @@
       <c r="F15" s="29">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="171.6">
+      <c r="G15" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="29">
         <v>10</v>
       </c>
